--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-10.04343790658347</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.45194155554494</v>
+        <v>-9.487953980126635</v>
       </c>
       <c r="F2" t="n">
-        <v>2.548526697860888</v>
+        <v>2.472874205602246</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.78135993904532</v>
+        <v>-14.72735108018651</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.620319569011617</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.00785097035437</v>
+        <v>-10.04362383359959</v>
       </c>
       <c r="F3" t="n">
-        <v>2.635267457693693</v>
+        <v>2.55960029841445</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.51429304993322</v>
+        <v>-14.4501786138805</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.111633576768774</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.09412727453482</v>
+        <v>-10.13222241604182</v>
       </c>
       <c r="F4" t="n">
-        <v>2.546756877375065</v>
+        <v>2.464245108482141</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.91541904277734</v>
+        <v>-13.85418423176923</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.552124894559457</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.70568336550348</v>
+        <v>-10.73654277684744</v>
       </c>
       <c r="F5" t="n">
-        <v>2.85418740718041</v>
+        <v>2.770575611742431</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.39027125917454</v>
+        <v>-13.33648240562474</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.93999085700969</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.23640950594143</v>
+        <v>-11.26621289180214</v>
       </c>
       <c r="F6" t="n">
-        <v>2.833262457790014</v>
+        <v>2.752711180650724</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.11588552678267</v>
+        <v>-13.06585143050667</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.292646375621317</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.21117969506693</v>
+        <v>-12.24096841390704</v>
       </c>
       <c r="F7" t="n">
-        <v>2.935736041720552</v>
+        <v>2.851865128918626</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.62279007219937</v>
+        <v>-12.57964458659884</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.609384394888433</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.9897149265682</v>
+        <v>-13.00956918345474</v>
       </c>
       <c r="F8" t="n">
-        <v>3.15952055303985</v>
+        <v>3.070349956794188</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.20893075190815</v>
+        <v>-12.16769197898572</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.912985618626589</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.72051389502091</v>
+        <v>-13.73703384922422</v>
       </c>
       <c r="F9" t="n">
-        <v>3.319581748855778</v>
+        <v>3.229188900893388</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.12541673660751</v>
+        <v>-12.08628023663785</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.208136456159747</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.72540525545348</v>
+        <v>-14.73520282521478</v>
       </c>
       <c r="F10" t="n">
-        <v>3.647213655035217</v>
+        <v>3.552894934558693</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.65013682304724</v>
+        <v>-11.6264398067633</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.512189606561409</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.43664330743166</v>
+        <v>-15.44767779593029</v>
       </c>
       <c r="F11" t="n">
-        <v>3.721810121810605</v>
+        <v>3.624890449680883</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.05383443350336</v>
+        <v>-11.03137433595675</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.841487258600519</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.585364360882</v>
+        <v>-16.59180807193259</v>
       </c>
       <c r="F12" t="n">
-        <v>4.000586182368962</v>
+        <v>3.906228349837503</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.57497087790964</v>
+        <v>-10.55528284725657</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.205173131573853</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.46085348756106</v>
+        <v>-17.46835811310178</v>
       </c>
       <c r="F13" t="n">
-        <v>4.370463996885412</v>
+        <v>4.272014065606347</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.991555910466943</v>
+        <v>-9.982628583927957</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.629891606273311</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.89538588245124</v>
+        <v>-18.89541032748558</v>
       </c>
       <c r="F14" t="n">
-        <v>4.433698411702091</v>
+        <v>4.333586218088273</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.48943534920731</v>
+        <v>-9.484477896244258</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.127643505131647</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.66012922558095</v>
+        <v>-19.6618501559981</v>
       </c>
       <c r="F15" t="n">
-        <v>4.608079508631213</v>
+        <v>4.50903800752125</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.868252803717697</v>
+        <v>-8.871841334758013</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.713395154825113</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.90394146259278</v>
+        <v>-20.89803554229755</v>
       </c>
       <c r="F16" t="n">
-        <v>4.544879316862604</v>
+        <v>4.450839269777494</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.624164246880103</v>
+        <v>-8.627914115147025</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.392875873286966</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.23866967130176</v>
+        <v>-22.23147794220053</v>
       </c>
       <c r="F17" t="n">
-        <v>4.919528802081163</v>
+        <v>4.828495494219206</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.338450685577593</v>
+        <v>-8.342371669084859</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.153570432015968</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.12090562745717</v>
+        <v>-23.118964691731</v>
       </c>
       <c r="F18" t="n">
-        <v>5.014898659034072</v>
+        <v>4.926163184399567</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.87303189886789</v>
+        <v>-7.885117523842903</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.9843325814147594</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.1710789694911</v>
+        <v>-24.17604620046788</v>
       </c>
       <c r="F19" t="n">
-        <v>5.158009668042407</v>
+        <v>5.072926281537486</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.278592220940302</v>
+        <v>-7.292692116744485</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8576989716717404</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.08692195884967</v>
+        <v>-25.09041759875952</v>
       </c>
       <c r="F20" t="n">
-        <v>5.39587451913842</v>
+        <v>5.314653448058362</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.85944788422595</v>
+        <v>-6.882387104445515</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.7488286185402954</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.89736284916443</v>
+        <v>-25.90866134403387</v>
       </c>
       <c r="F21" t="n">
-        <v>5.497438747791711</v>
+        <v>5.423336070709881</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.2854540330158</v>
+        <v>-6.315682762473935</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.634733794601354</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.47576902907197</v>
+        <v>-26.49465526259886</v>
       </c>
       <c r="F22" t="n">
-        <v>5.504615809872342</v>
+        <v>5.429388661211122</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.047466956748115</v>
+        <v>-6.083024703691187</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.4957192070755456</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.14674855400455</v>
+        <v>-27.1556661025298</v>
       </c>
       <c r="F23" t="n">
-        <v>5.476665357614189</v>
+        <v>5.404889847801011</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.600650841167023</v>
+        <v>-5.645595481294572</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.3274688778377278</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.50511275734941</v>
+        <v>-27.52641416026856</v>
       </c>
       <c r="F24" t="n">
-        <v>5.621878639575297</v>
+        <v>5.553344541314884</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.314350599040484</v>
+        <v>-5.366579859399737</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.1315673967404004</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.76764020358558</v>
+        <v>-27.78470772655798</v>
       </c>
       <c r="F25" t="n">
-        <v>5.337167324680506</v>
+        <v>5.269674584882744</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.882983745158844</v>
+        <v>-4.93730061145027</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.08039836703019185</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.83089417442972</v>
+        <v>-27.85350094218234</v>
       </c>
       <c r="F26" t="n">
-        <v>5.546015920021378</v>
+        <v>5.490163905573741</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.557859899502134</v>
+        <v>-4.618146243178062</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2898838308243439</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.07909438604239</v>
+        <v>-28.09807595520319</v>
       </c>
       <c r="F27" t="n">
-        <v>5.46742513463572</v>
+        <v>5.412218469094516</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.385815747855396</v>
+        <v>-4.447710574790539</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4779838782691037</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.85895462934238</v>
+        <v>-27.88170562279757</v>
       </c>
       <c r="F28" t="n">
-        <v>5.406156100579542</v>
+        <v>5.358810958080338</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.155915088945588</v>
+        <v>-4.212500454423261</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6226943640822393</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.91739292842261</v>
+        <v>-27.94366889582885</v>
       </c>
       <c r="F29" t="n">
-        <v>5.394383372044011</v>
+        <v>5.344931067585166</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.675824392628274</v>
+        <v>-3.743361133487837</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7032306144328506</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.62337783346008</v>
+        <v>-27.6500473659191</v>
       </c>
       <c r="F30" t="n">
-        <v>5.362560826347261</v>
+        <v>5.31153426167727</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.859284375309257</v>
+        <v>-3.91558617838865</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7042247432958648</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.55064896730786</v>
+        <v>-27.57596913387161</v>
       </c>
       <c r="F31" t="n">
-        <v>5.499839250163366</v>
+        <v>5.441542732282272</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.111669576800008</v>
+        <v>-4.159229835601356</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6089026404233169</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.08635709668098</v>
+        <v>-27.11228594459966</v>
       </c>
       <c r="F32" t="n">
-        <v>5.497482748853513</v>
+        <v>5.440120031284001</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.971301300644012</v>
+        <v>-4.023843457442747</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4097554818663697</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.69567166893894</v>
+        <v>-26.72340944939838</v>
       </c>
       <c r="F33" t="n">
-        <v>5.246671807573909</v>
+        <v>5.188477958837021</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.834453109432196</v>
+        <v>-3.885279224820644</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.1038990550991674</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.35258316754975</v>
+        <v>-26.37937003617358</v>
       </c>
       <c r="F34" t="n">
-        <v>5.374470447075066</v>
+        <v>5.312805403462668</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.736164515379738</v>
+        <v>-3.786061719463472</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.306464880797888</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.14605196146379</v>
+        <v>-26.16522175738897</v>
       </c>
       <c r="F35" t="n">
-        <v>5.529779528216354</v>
+        <v>5.463738823458066</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.076967406058645</v>
+        <v>-4.11966799203428</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.8045482996028387</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.46919829478062</v>
+        <v>-25.49148238808002</v>
       </c>
       <c r="F36" t="n">
-        <v>5.602606174505919</v>
+        <v>5.533172498981992</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.244811900806702</v>
+        <v>-4.281371894157492</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.374829938975627</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.88242946862722</v>
+        <v>-24.9082483138914</v>
       </c>
       <c r="F37" t="n">
-        <v>5.610125467067234</v>
+        <v>5.538291289171652</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.381268971469166</v>
+        <v>-4.416059144334132</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.99084352434146</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.33858612276534</v>
+        <v>-24.36042531643984</v>
       </c>
       <c r="F38" t="n">
-        <v>5.423864083451508</v>
+        <v>5.356977580505244</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.331337544337363</v>
+        <v>-4.35706349847107</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.6225660588682</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.78711592619106</v>
+        <v>-23.80873511455656</v>
       </c>
       <c r="F39" t="n">
-        <v>5.394378483037144</v>
+        <v>5.325355484090038</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.539839020190685</v>
+        <v>-4.563433367330417</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.243911881778314</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.15217082637109</v>
+        <v>-23.17744210286617</v>
       </c>
       <c r="F40" t="n">
-        <v>5.461680551567095</v>
+        <v>5.394530042250018</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.315286934793281</v>
+        <v>-4.334539843835192</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.822756909351395</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.56223392376793</v>
+        <v>-22.589930147669</v>
       </c>
       <c r="F41" t="n">
-        <v>5.574010373341333</v>
+        <v>5.501173949038034</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.672658669744163</v>
+        <v>-4.683135811459962</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.340250256992635</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.96126253266614</v>
+        <v>-21.9867293694359</v>
       </c>
       <c r="F42" t="n">
-        <v>5.524377175628413</v>
+        <v>5.450435835773191</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.628985171402012</v>
+        <v>-4.633918179330729</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.77925275565091</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.36534637466475</v>
+        <v>-21.39635245621472</v>
       </c>
       <c r="F43" t="n">
-        <v>5.404410725128053</v>
+        <v>5.33517749888567</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.922242470300171</v>
+        <v>-4.917881476174883</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.12868319619243</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.56549507322373</v>
+        <v>-20.59311307301493</v>
       </c>
       <c r="F44" t="n">
-        <v>5.474646197778154</v>
+        <v>5.400367516449115</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.06089470504588</v>
+        <v>-5.054915449647642</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.390560860186235</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.87848693927797</v>
+        <v>-19.91175663100733</v>
       </c>
       <c r="F45" t="n">
-        <v>5.48126102406909</v>
+        <v>5.40815570438811</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.171342259176355</v>
+        <v>-5.16658036648798</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.565233487098549</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.31275062066604</v>
+        <v>-19.34305268522718</v>
       </c>
       <c r="F46" t="n">
-        <v>5.586858683387585</v>
+        <v>5.505534943163322</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.070990504226058</v>
+        <v>-5.061388494739438</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.669081862494727</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.7041034887832</v>
+        <v>-18.73096858151689</v>
       </c>
       <c r="F47" t="n">
-        <v>5.637235010144277</v>
+        <v>5.559763807331143</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.329648301527061</v>
+        <v>-5.311104298480853</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.717993241240181</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.92953813085786</v>
+        <v>-17.96035843014689</v>
       </c>
       <c r="F48" t="n">
-        <v>5.63780213494084</v>
+        <v>5.557720202460772</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.393400951071632</v>
+        <v>-5.372906234285525</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.730990070388887</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.29010981174092</v>
+        <v>-17.32631290759043</v>
       </c>
       <c r="F49" t="n">
-        <v>5.421888924677274</v>
+        <v>5.341841215245275</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.507246364974614</v>
+        <v>-5.481139068305287</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.733282505301908</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.77690587191399</v>
+        <v>-16.80273938419877</v>
       </c>
       <c r="F50" t="n">
-        <v>5.498783224680112</v>
+        <v>5.417259035174306</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.845389635917919</v>
+        <v>-5.818519654177354</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.73668274033698</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.29619427172458</v>
+        <v>-16.31651298426348</v>
       </c>
       <c r="F51" t="n">
-        <v>5.464970853188529</v>
+        <v>5.379687017402064</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.925505791446054</v>
+        <v>-5.9014714336883</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.76249067298528</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.52510988668849</v>
+        <v>-15.55248832514321</v>
       </c>
       <c r="F52" t="n">
-        <v>5.49420711425268</v>
+        <v>5.40920195185763</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.270552340085444</v>
+        <v>-6.2447579398556</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.818180615517597</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.19808910636742</v>
+        <v>-15.21324991666172</v>
       </c>
       <c r="F53" t="n">
-        <v>5.655182554352722</v>
+        <v>5.568026228936229</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.660250188440367</v>
+        <v>-6.629537447302408</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.908137594173347</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.6063432712235</v>
+        <v>-14.62432014947314</v>
       </c>
       <c r="F54" t="n">
-        <v>5.639899518886746</v>
+        <v>5.547228393724373</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.863085305334934</v>
+        <v>-6.837222459008954</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.039149307846547</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.1837472956611</v>
+        <v>-14.20079037359917</v>
       </c>
       <c r="F55" t="n">
-        <v>5.53983132633473</v>
+        <v>5.444833033903707</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.332356629455766</v>
+        <v>-7.296393094942739</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.200292387879198</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.82414128457204</v>
+        <v>-13.83954654520969</v>
       </c>
       <c r="F56" t="n">
-        <v>5.265758490382345</v>
+        <v>5.178709723116925</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.525985746419932</v>
+        <v>-7.491576916090585</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.394297569364974</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.38718140683465</v>
+        <v>-13.40220043592981</v>
       </c>
       <c r="F57" t="n">
-        <v>5.29467207699328</v>
+        <v>5.208077987366483</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.986241741878173</v>
+        <v>-7.954321416044085</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.611074810417114</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.03289463521679</v>
+        <v>-13.04546427187163</v>
       </c>
       <c r="F58" t="n">
-        <v>5.198549312982865</v>
+        <v>5.112033447465938</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.377812079863125</v>
+        <v>-8.34404859844021</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.840433981555272</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.74477079352889</v>
+        <v>-12.75642618589962</v>
       </c>
       <c r="F59" t="n">
-        <v>5.164536492209739</v>
+        <v>5.08119359214944</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.370136339082068</v>
+        <v>-8.34038673229689</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.080227763944396</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.16905601190159</v>
+        <v>-12.18459816473151</v>
       </c>
       <c r="F60" t="n">
-        <v>5.158865244244117</v>
+        <v>5.074026308082542</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.63798546929287</v>
+        <v>-8.608812765317989</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.313010242402886</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.94273410601836</v>
+        <v>-11.95723001137877</v>
       </c>
       <c r="F61" t="n">
-        <v>4.974002116592329</v>
+        <v>4.894242858565478</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.90873866958262</v>
+        <v>-8.876622783473856</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.538624509533498</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.72210300412823</v>
+        <v>-11.73887718668861</v>
       </c>
       <c r="F62" t="n">
-        <v>4.919387020882022</v>
+        <v>4.836005008766787</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.010508236524322</v>
+        <v>-8.978206568154615</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.74743064463163</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.66363537100679</v>
+        <v>-11.67708991790454</v>
       </c>
       <c r="F63" t="n">
-        <v>4.832431144747073</v>
+        <v>4.753165676413781</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.101590434454947</v>
+        <v>-9.066966487823455</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.9300378905479</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.6671065658823</v>
+        <v>-11.68310339635085</v>
       </c>
       <c r="F64" t="n">
-        <v>4.772692369840239</v>
+        <v>4.690835727867482</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.225644094696047</v>
+        <v>-9.193239757182134</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.086901505797631</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.6355724715907</v>
+        <v>-11.65008793297857</v>
       </c>
       <c r="F65" t="n">
-        <v>4.864204800375153</v>
+        <v>4.782059706997249</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.265010377988446</v>
+        <v>-9.231085559338924</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.203961466825001</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.53223353344472</v>
+        <v>-11.54539473993045</v>
       </c>
       <c r="F66" t="n">
-        <v>4.70635343566307</v>
+        <v>4.625093252528077</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.408976963198491</v>
+        <v>-9.376616626746381</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.283360217337414</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.76260353701375</v>
+        <v>-11.77424915137074</v>
       </c>
       <c r="F67" t="n">
-        <v>4.618087305687788</v>
+        <v>4.538372048722739</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.592187606529262</v>
+        <v>-9.555055599375043</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.319199211892331</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.56677925596634</v>
+        <v>-11.57926577950444</v>
       </c>
       <c r="F68" t="n">
-        <v>4.604187859165148</v>
+        <v>4.520918294207853</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.729197134967686</v>
+        <v>-9.696998135742184</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.306022516563068</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.7400456593298</v>
+        <v>-11.74888987275205</v>
       </c>
       <c r="F69" t="n">
-        <v>4.622722084197623</v>
+        <v>4.536685341353654</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.751026550628461</v>
+        <v>-9.721091161582342</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.24876708812462</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.80229249475937</v>
+        <v>-11.81051580430952</v>
       </c>
       <c r="F70" t="n">
-        <v>4.736855949505753</v>
+        <v>4.650232525837754</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.739346713223402</v>
+        <v>-9.715938148344613</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.13986032172286</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.10409577766089</v>
+        <v>-12.11493959489171</v>
       </c>
       <c r="F71" t="n">
-        <v>4.551396363016201</v>
+        <v>4.465555180446908</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.59478855818246</v>
+        <v>-9.574596959822102</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.987734370571097</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.22548981816639</v>
+        <v>-12.24090974582464</v>
       </c>
       <c r="F72" t="n">
-        <v>4.350096394277845</v>
+        <v>4.268161528195217</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.576845902980882</v>
+        <v>-9.551222617991382</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.793187689879413</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.36776969600735</v>
+        <v>-12.3837665264759</v>
       </c>
       <c r="F73" t="n">
-        <v>4.414865957250734</v>
+        <v>4.330383918590444</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.423815099039578</v>
+        <v>-9.404689304176207</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.557553836433845</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.62124514602942</v>
+        <v>-12.63266586607053</v>
       </c>
       <c r="F74" t="n">
-        <v>4.3662838960142</v>
+        <v>4.280374267348771</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.419962561628449</v>
+        <v>-9.396289990378847</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.291074838273559</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.15884523012226</v>
+        <v>-13.16598318014795</v>
       </c>
       <c r="F75" t="n">
-        <v>4.43762917322309</v>
+        <v>4.348913254616051</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.430200142007768</v>
+        <v>-9.402777702491242</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.991312778159315</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.21930757804539</v>
+        <v>-13.23333902775344</v>
       </c>
       <c r="F76" t="n">
-        <v>4.380603797127394</v>
+        <v>4.291545648039671</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.325609618103856</v>
+        <v>-9.307407845538332</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.670065621309207</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.73117681899766</v>
+        <v>-13.73843210518816</v>
       </c>
       <c r="F77" t="n">
-        <v>4.428921851993114</v>
+        <v>4.339907703967194</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.127541282904533</v>
+        <v>-9.109852856060034</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.330309823632409</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.03499437272835</v>
+        <v>-14.04164831107422</v>
       </c>
       <c r="F78" t="n">
-        <v>4.391105383877528</v>
+        <v>4.305166421170896</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.001898695431684</v>
+        <v>-8.986420099691031</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.974494989817654</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.23974109130788</v>
+        <v>-14.2552832441378</v>
       </c>
       <c r="F79" t="n">
-        <v>4.510597600711796</v>
+        <v>4.418571824455856</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.916037956834924</v>
+        <v>-8.892629391956135</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.611545304627012</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.97455393439833</v>
+        <v>-14.98450795237937</v>
       </c>
       <c r="F80" t="n">
-        <v>4.389716905927323</v>
+        <v>4.300531642661061</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.936165998106013</v>
+        <v>-8.909340017427251</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.237697034705642</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.57034786722805</v>
+        <v>-15.58092767808806</v>
       </c>
       <c r="F81" t="n">
-        <v>4.453459777458161</v>
+        <v>4.359043276844299</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.586738899313868</v>
+        <v>-8.56405879645825</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.861112546688117</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.3930699427925</v>
+        <v>-16.39414063529636</v>
       </c>
       <c r="F82" t="n">
-        <v>4.47089397594558</v>
+        <v>4.375137887450183</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.571475419875359</v>
+        <v>-8.54412142645497</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.482463665616196</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.13424827282368</v>
+        <v>-17.14207068381074</v>
       </c>
       <c r="F83" t="n">
-        <v>4.508363324573615</v>
+        <v>4.408529804351212</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.592639930602234</v>
+        <v>-8.564718812385284</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.103196601610492</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.27882344845087</v>
+        <v>-18.2813608430148</v>
       </c>
       <c r="F84" t="n">
-        <v>4.525289066346875</v>
+        <v>4.425489769172541</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.452721443077996</v>
+        <v>-8.42544078476061</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.734066282414914</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.37509523623294</v>
+        <v>-19.37800908432562</v>
       </c>
       <c r="F85" t="n">
-        <v>4.735159464122933</v>
+        <v>4.634265029410409</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.349035385444463</v>
+        <v>-8.324199230560534</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.376597338132198</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.53064134326949</v>
+        <v>-20.53232805063858</v>
       </c>
       <c r="F86" t="n">
-        <v>4.758352912699578</v>
+        <v>4.648311146139056</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.03146016639027</v>
+        <v>-8.008481834115768</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.044227973037821</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.46388919707428</v>
+        <v>-21.4635029655318</v>
       </c>
       <c r="F87" t="n">
-        <v>4.836870362982232</v>
+        <v>4.724916994736747</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.879377829781146</v>
+        <v>-7.853842546915248</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.747125849431136</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.91005742830772</v>
+        <v>-22.91214992324677</v>
       </c>
       <c r="F88" t="n">
-        <v>4.905360460180843</v>
+        <v>4.796452943213446</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.900346780233344</v>
+        <v>-7.875095059765728</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.492410873709101</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.45807345059274</v>
+        <v>-24.45306710756102</v>
       </c>
       <c r="F89" t="n">
-        <v>4.71717769686642</v>
+        <v>4.608196844796018</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.423482828448194</v>
+        <v>-7.398123549829505</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.297733885512868</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.98690989893884</v>
+        <v>-25.98758458188648</v>
       </c>
       <c r="F90" t="n">
-        <v>4.942409354218325</v>
+        <v>4.832621816014883</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.511465396025195</v>
+        <v>-7.488638622963569</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.169580138614877</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.8862157316323</v>
+        <v>-27.87860599244394</v>
       </c>
       <c r="F91" t="n">
-        <v>4.798931669694972</v>
+        <v>4.69873147395755</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.189900747367598</v>
+        <v>-7.166922415093098</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.120307857422599</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.61999690333604</v>
+        <v>-29.61277828469705</v>
       </c>
       <c r="F92" t="n">
-        <v>4.822178897347152</v>
+        <v>4.721308907668963</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.198573845549505</v>
+        <v>-7.174788827141964</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.160110273027505</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.31862856017011</v>
+        <v>-31.31090637382382</v>
       </c>
       <c r="F93" t="n">
-        <v>4.89774338748219</v>
+        <v>4.795778260265812</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.18317836292559</v>
+        <v>-7.164443688611572</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.287061950798495</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.53445114193107</v>
+        <v>-33.52542847975818</v>
       </c>
       <c r="F94" t="n">
-        <v>4.759237822942489</v>
+        <v>4.669705440188675</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.858025183227677</v>
+        <v>-6.845548437703311</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.505889949986988</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.7274396171201</v>
+        <v>-35.71608245416826</v>
       </c>
       <c r="F95" t="n">
-        <v>4.715314985250125</v>
+        <v>4.627102634350379</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.608211599348924</v>
+        <v>-6.601728776243395</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.812114582152347</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.93703849313948</v>
+        <v>-37.92374528346834</v>
       </c>
       <c r="F96" t="n">
-        <v>4.706030761209854</v>
+        <v>4.616444599380504</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.33619703528751</v>
+        <v>-6.342855862640248</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.189322748934905</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.42314493053097</v>
+        <v>-40.40932859712507</v>
       </c>
       <c r="F97" t="n">
-        <v>4.361350888085483</v>
+        <v>4.27601816223035</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.271085241833937</v>
+        <v>-6.279611669809837</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.640452155645116</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.51485273946499</v>
+        <v>-42.50065017451661</v>
       </c>
       <c r="F98" t="n">
-        <v>4.381004695690481</v>
+        <v>4.300502308619859</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.157938955912925</v>
+        <v>-6.174986922857857</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.125084001227997</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.0065497562088</v>
+        <v>-44.98998580094369</v>
       </c>
       <c r="F99" t="n">
-        <v>3.90347583897143</v>
+        <v>3.827740233596051</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.719409706971255</v>
+        <v>-5.744876543741015</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.663448358924997</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.58868606648023</v>
+        <v>-47.5648289352214</v>
       </c>
       <c r="F100" t="n">
-        <v>3.618021395032867</v>
+        <v>3.553022048737233</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.683040384888274</v>
+        <v>-5.724968507778937</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.188707912101363</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.73469363018165</v>
+        <v>-49.71053338049707</v>
       </c>
       <c r="F101" t="n">
-        <v>3.632747083716015</v>
+        <v>3.571864281202323</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.73521586617199</v>
+        <v>-5.777368883378531</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.768493434174313</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.88575887148689</v>
+        <v>-51.86390501079178</v>
       </c>
       <c r="F102" t="n">
-        <v>3.28536358979424</v>
+        <v>3.225913266292555</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.66602664099141</v>
+        <v>-5.72117463845021</v>
       </c>
     </row>
   </sheetData>
